--- a/PTBR/Lang/PTBR/Dialog/Drama/_tutorial.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/_tutorial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45460C25-9484-4E7E-82F2-FAE9DCCF4A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D524DE-859C-448D-AD82-7FC8C78686C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="3060" windowWidth="17790" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="771">
   <si>
     <t>version</t>
   </si>
@@ -2944,6 +2944,121 @@
   </si>
   <si>
     <t>Nerun Demo</t>
+  </si>
+  <si>
+    <t>worldend</t>
+  </si>
+  <si>
+    <t>ラグナロク・ノ・刻</t>
+  </si>
+  <si>
+    <t>The Hour of Ragnarok</t>
+  </si>
+  <si>
+    <t>A Hora do Ragnarok</t>
+  </si>
+  <si>
+    <t>チリンチリーン！ 
+キミが冒険を開始してから…
+なんと2千年もの時が過ぎました！</t>
+  </si>
+  <si>
+    <t>Tinkle-tinkle!
+Can you believe it?
+It's been two thousand years since you started your adventure!</t>
+  </si>
+  <si>
+    <t>なかなか、長生きするのね？</t>
+  </si>
+  <si>
+    <t>You're quite the long-liver, aren't you?</t>
+  </si>
+  <si>
+    <t>私？　
+…失礼ね。私はもちろん、いつまでもピチピチの妖精の乙女よ。
+妖精って、そういう生き物だから。</t>
+  </si>
+  <si>
+    <t>Me?
+...How rude. I'm still a sprightly fairy maiden, of course.
+That's just how fairies are.</t>
+  </si>
+  <si>
+    <t>でも大変！
+この世界も、永遠に続くわけではないの。
+滅びの時は、穏やかに迫りつつある。</t>
+  </si>
+  <si>
+    <t>But oh dear!
+This world won't last forever.
+The end draws near, gently but surely.</t>
+  </si>
+  <si>
+    <t>ラグナロク・ノ・刻…
+私にも確かなことはわからない。
+だけど、4千年をこえると、この世界には綻びが生じ
+様々な異常現象が発生するといわれているわ。</t>
+  </si>
+  <si>
+    <t>The Hour of Ragnarok...
+Even I don’t know exactly what that means.
+But it’s said that once the world surpasses four thousand years,
+it begins to unravel—strange phenomena start to appear.</t>
+  </si>
+  <si>
+    <t>残念ながら、この綻びを回避するすべは
+まだみつかっていないの。</t>
+  </si>
+  <si>
+    <t>Sadly, no way to prevent that unraveling has been found yet.</t>
+  </si>
+  <si>
+    <t>キミと、いつまでも冒険していたい…</t>
+  </si>
+  <si>
+    <t>I want to keep adventuring with you forever...</t>
+  </si>
+  <si>
+    <t>だから…
+これからは、少しゆっくり時間を進めましょう？</t>
+  </si>
+  <si>
+    <t>So...
+How about we slow things down a little from here on?</t>
+  </si>
+  <si>
+    <t>Tlim-tlim!
+Você acredita nisso?
+Já se passaram dois mil anos desde que você começou sua aventura!</t>
+  </si>
+  <si>
+    <t>Você vive bastante, hein?</t>
+  </si>
+  <si>
+    <t>Eu?
+... Que grosseria. Ainda sou uma jovenzinha fada cheia de energia, é claro.
+Fadas são assim mesmo.</t>
+  </si>
+  <si>
+    <t>Mas ai, ai!
+Este mundo não vai durar para sempre.
+O fim se aproxima, suavemente, mas com certeza.</t>
+  </si>
+  <si>
+    <t>A Hora do Ragnarok...
+Nem eu sei exatamente o que isso significa.
+Mas dizem que, quando o mundo ultrapassa quatro mil anos,
+ele começa a se desfazer — fenômenos estranhos começam a surgir.</t>
+  </si>
+  <si>
+    <t>Infelizmente, ainda não foi encontrada uma forma de impedir esse desmoronamento.</t>
+  </si>
+  <si>
+    <t>Quero continuar aventurando com você pra sempre…</t>
+  </si>
+  <si>
+    <t>Então...
+Que tal diminuirmos um pouquinho o ritmo daqui pra frente?</t>
   </si>
 </sst>
 </file>
@@ -3261,11 +3376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4070,6 +4185,29 @@
         <v>615</v>
       </c>
     </row>
+    <row r="38" spans="1:8">
+      <c r="B38">
+        <v>990</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>743</v>
+      </c>
+      <c r="F38" t="s">
+        <v>744</v>
+      </c>
+      <c r="G38" t="s">
+        <v>745</v>
+      </c>
+      <c r="H38" t="s">
+        <v>746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4078,12 +4216,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K348"/>
+  <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I347" sqref="I347"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4095,7 +4233,7 @@
     <col min="7" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="74.85546875" customWidth="1"/>
     <col min="10" max="10" width="88.140625" customWidth="1"/>
-    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="102.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4136,7 +4274,7 @@
     <row r="2" spans="1:11">
       <c r="H2">
         <f>MAX(H4:H1048576)</f>
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4177,308 +4315,331 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="A12" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="49.5">
       <c r="H13">
-        <v>200</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>120</v>
+        <v>220</v>
+      </c>
+      <c r="I13" t="s">
+        <v>747</v>
       </c>
       <c r="J13" t="s">
-        <v>553</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="49.5">
+        <v>748</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="H14">
-        <v>201</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="49.5">
+        <v>221</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="H15">
-        <v>202</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33">
+        <v>222</v>
+      </c>
+      <c r="I15" t="s">
+        <v>749</v>
+      </c>
+      <c r="J15" t="s">
+        <v>750</v>
+      </c>
+      <c r="K15" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="49.5">
       <c r="H16">
-        <v>203</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="53.25">
+        <v>223</v>
+      </c>
+      <c r="I16" t="s">
+        <v>751</v>
+      </c>
+      <c r="J16" t="s">
+        <v>752</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="49.5">
       <c r="H17">
-        <v>204</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="53.25">
+        <v>224</v>
+      </c>
+      <c r="I17" t="s">
+        <v>753</v>
+      </c>
+      <c r="J17" t="s">
+        <v>754</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="66">
       <c r="H18">
-        <v>205</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="40.5">
+        <v>225</v>
+      </c>
+      <c r="I18" t="s">
+        <v>755</v>
+      </c>
+      <c r="J18" t="s">
+        <v>756</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="H19">
-        <v>206</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>560</v>
+        <v>226</v>
+      </c>
+      <c r="I19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J19" t="s">
+        <v>758</v>
+      </c>
+      <c r="K19" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="H20">
-        <v>207</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>504</v>
+        <v>227</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="H21">
-        <v>208</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" t="s">
+        <v>759</v>
+      </c>
+      <c r="J21" t="s">
+        <v>760</v>
+      </c>
+      <c r="K21" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="33">
+      <c r="H22">
+        <v>229</v>
+      </c>
+      <c r="I22" t="s">
+        <v>761</v>
+      </c>
+      <c r="J22" t="s">
+        <v>762</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="H25">
+        <v>200</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" t="s">
+        <v>553</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="49.5">
+      <c r="H26">
+        <v>201</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="49.5">
+      <c r="H27">
+        <v>202</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33">
+      <c r="H28">
+        <v>203</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="53.25">
+      <c r="H29">
+        <v>204</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="53.25">
+      <c r="H30">
+        <v>205</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="40.5">
+      <c r="H31">
+        <v>206</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="H32">
+        <v>207</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="H33">
+        <v>208</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="33">
-      <c r="H25">
+    <row r="37" spans="1:11" ht="33">
+      <c r="H37">
         <v>210</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="H26">
+    <row r="38" spans="1:11">
+      <c r="H38">
         <v>211</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K38" s="9" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="I27" s="3"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="33">
-      <c r="H32">
-        <v>193</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="49.5">
-      <c r="H33">
-        <v>194</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="33">
-      <c r="H34">
-        <v>195</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="49.5">
-      <c r="H35">
-        <v>196</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="40.5">
-      <c r="H36">
-        <v>197</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="66">
-      <c r="H37">
-        <v>198</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="40.5">
-      <c r="H38">
-        <v>199</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4507,627 +4668,525 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="33">
       <c r="H44">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K44" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="78.75">
+        <v>141</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="49.5">
       <c r="H45">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="33">
       <c r="H46">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K46" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="33">
+        <v>145</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="49.5">
       <c r="H47">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>573</v>
+        <v>147</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="40.5">
       <c r="H48">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="78.75">
+        <v>148</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="66">
       <c r="H49">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="40.5">
       <c r="H50">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="33">
-      <c r="H51">
-        <v>191</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>575</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="I51" s="3"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="H52">
-        <v>192</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>576</v>
-      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11">
+      <c r="B53" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="A55" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>81</v>
+      <c r="H56">
+        <v>184</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K56" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="78.75">
+      <c r="H57">
+        <v>185</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="H58">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K58" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="33">
       <c r="H59">
+        <v>187</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="H60">
+        <v>188</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="78.75">
+      <c r="H61">
+        <v>189</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="H62">
+        <v>190</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="33">
+      <c r="H63">
+        <v>191</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="H64">
+        <v>192</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="H70">
+        <v>174</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K70" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="33">
+      <c r="H71">
         <v>175</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="66">
-      <c r="H60">
+    <row r="72" spans="1:11" ht="66">
+      <c r="H72">
         <v>176</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="H61">
+    <row r="73" spans="1:11">
+      <c r="H73">
         <v>177</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K73" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="66">
-      <c r="H62">
+    <row r="74" spans="1:11" ht="66">
+      <c r="H74">
         <v>178</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="66">
-      <c r="H63">
+    <row r="75" spans="1:11" ht="66">
+      <c r="H75">
         <v>179</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="B64" s="3" t="s">
+    <row r="76" spans="1:11">
+      <c r="B76" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="33">
-      <c r="A66" s="3" t="s">
+    <row r="78" spans="1:11" ht="33">
+      <c r="A78" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="H68">
-        <v>180</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="66">
-      <c r="H69">
-        <v>181</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="33">
-      <c r="H70">
-        <v>182</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="49.5">
-      <c r="H71">
-        <v>183</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="B72" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="H77">
-        <v>22</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="49.5">
-      <c r="H78">
-        <v>23</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="66">
-      <c r="H79">
-        <v>24</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="H80">
+        <v>180</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="66">
+      <c r="H81">
+        <v>181</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="33">
+      <c r="H82">
+        <v>182</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="49.5">
+      <c r="H83">
+        <v>183</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="B84" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="H89">
+        <v>22</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="49.5">
+      <c r="H90">
+        <v>23</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="66">
+      <c r="H91">
+        <v>24</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="H92">
         <v>25</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J92" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K92" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="B81" s="3" t="s">
+    <row r="93" spans="1:11">
+      <c r="B93" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.6" customHeight="1">
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="3" t="s">
+    <row r="94" spans="1:11" ht="15.6" customHeight="1">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" ht="30">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84">
-        <v>169</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85">
-        <v>170</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86">
-        <v>171</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="66">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87">
-        <v>172</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="43.5">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88">
-        <v>173</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:11" ht="18.75">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92">
-        <v>155</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="30">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93">
-        <v>156</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="43.5">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94">
-        <v>157</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="66">
-      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95">
-        <v>158</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="K95" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="53.25">
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" ht="30">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5136,19 +5195,19 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="53.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5157,47 +5216,61 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="3"/>
-      <c r="B98" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="H98">
+        <v>171</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="66">
+      <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" ht="18.75">
+      <c r="H99">
+        <v>172</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="43.5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5206,19 +5279,19 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100">
-        <v>161</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="30">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5226,90 +5299,81 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101">
-        <v>162</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K101" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="66">
+      <c r="I101" s="6"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102">
-        <v>163</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K102" s="9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30">
-      <c r="A103" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103">
-        <v>164</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="K103" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" ht="18.75">
       <c r="A104" s="3"/>
-      <c r="B104" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="H104">
+        <v>155</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30">
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.75">
+      <c r="H105">
+        <v>156</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="43.5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5318,19 +5382,19 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106">
-        <v>165</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J106" t="s">
-        <v>514</v>
+        <v>157</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>595</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="18.75">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="66">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5339,19 +5403,19 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107">
-        <v>166</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>134</v>
+        <v>158</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="28.5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="53.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5360,19 +5424,19 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108">
-        <v>167</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>222</v>
+        <v>159</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="40.5">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="53.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5381,16 +5445,16 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5409,7 +5473,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5421,7 +5485,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="30">
+    <row r="112" spans="1:11" ht="18.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5430,19 +5494,19 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112">
-        <v>116</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>226</v>
+        <v>161</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="43.5">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="30">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5451,19 +5515,19 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="57">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="66">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5472,19 +5536,19 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="43.5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5493,44 +5557,37 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="30">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116">
-        <v>120</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K116" s="9" t="s">
-        <v>608</v>
-      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A117" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5540,7 +5597,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" ht="18.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5548,25 +5605,41 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="1:11" ht="33">
-      <c r="A119" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="H118">
+        <v>165</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J118" t="s">
+        <v>514</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="18.75">
+      <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="H119">
+        <v>166</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="28.5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5575,19 +5648,19 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120">
-        <v>121</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>236</v>
+        <v>167</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="K120" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="49.5">
+        <v>223</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="40.5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5596,61 +5669,47 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="66">
+        <v>224</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122">
-        <v>123</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="66">
-      <c r="A123" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123">
-        <v>124</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="49.5">
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:11" ht="30">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5659,19 +5718,19 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="33">
+        <v>226</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="43.5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5680,19 +5739,19 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125">
-        <v>126</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>117</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="57">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5700,25 +5759,41 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="H126">
+        <v>118</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="43.5">
       <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="H127">
+        <v>119</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="30">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5726,15 +5801,24 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:11" ht="33">
-      <c r="A129" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" s="3"/>
+      <c r="H128">
+        <v>120</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5744,7 +5828,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="30">
+    <row r="130" spans="1:11">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5752,39 +5836,23 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130">
-        <v>127</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="K130" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="49.5">
-      <c r="A131" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="1:11" ht="33">
+      <c r="A131" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131">
-        <v>128</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>616</v>
-      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -5794,25 +5862,41 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="H132">
+        <v>121</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K132" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="49.5">
       <c r="A133" s="3"/>
-      <c r="B133" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="H133">
+        <v>122</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="66">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5820,25 +5904,41 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="H134">
+        <v>123</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="66">
+      <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="H135">
+        <v>124</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="49.5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5847,19 +5947,19 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="K136" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="49.5">
+        <v>244</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="33">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5868,19 +5968,19 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137">
-        <v>130</v>
-      </c>
-      <c r="I137" s="10" t="s">
-        <v>254</v>
+        <v>126</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="33">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5888,41 +5988,25 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138">
-        <v>131</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="33">
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="B139" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139">
-        <v>132</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="66">
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5930,41 +6014,25 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140">
-        <v>133</v>
-      </c>
-      <c r="I140" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="43.5">
-      <c r="A141" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="1:11" ht="33">
+      <c r="A141" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141">
-        <v>134</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="49.5">
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" ht="30">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5973,19 +6041,19 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142">
-        <v>135</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="33">
+        <v>127</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="49.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5994,23 +6062,21 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
-      <c r="B144" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6022,7 +6088,9 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6033,9 +6101,7 @@
       <c r="K145" s="3"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -6046,26 +6112,19 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" ht="30">
-      <c r="A147" s="3"/>
+    <row r="147" spans="1:11">
+      <c r="A147" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147">
-        <v>137</v>
-      </c>
-      <c r="I147" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K147" s="9" t="s">
-        <v>622</v>
-      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -6076,19 +6135,19 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="J148" t="s">
-        <v>623</v>
+        <v>252</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="49.5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6097,19 +6156,19 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="J149" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K149" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="43.5">
+        <v>254</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="33">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6118,19 +6177,19 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="K150" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="30">
+        <v>256</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="33">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6139,19 +6198,19 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J151" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="K151" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="53.25">
+        <v>258</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="66">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6160,47 +6219,61 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="J152" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K152" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>260</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="43.5">
       <c r="A153" s="3"/>
-      <c r="B153" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="H153">
+        <v>134</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="49.5">
+      <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="H154">
+        <v>135</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="33">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6209,40 +6282,33 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155">
-        <v>143</v>
-      </c>
-      <c r="I155" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K155" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="66">
+        <v>136</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="B156" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156">
-        <v>144</v>
-      </c>
-      <c r="I156" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="66">
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6250,41 +6316,25 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157">
-        <v>145</v>
-      </c>
-      <c r="I157" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="K157" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="99">
-      <c r="A158" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158">
-        <v>146</v>
-      </c>
-      <c r="I158" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="99">
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" ht="30">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6293,16 +6343,16 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>526</v>
+        <v>268</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K159" s="9" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6313,9 +6363,18 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
+      <c r="H160">
+        <v>138</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="J160" t="s">
+        <v>623</v>
+      </c>
+      <c r="K160" s="9" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -6325,39 +6384,62 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="H161">
+        <v>139</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="43.5">
       <c r="A162" s="3"/>
-      <c r="B162" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H162">
+        <v>140</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="30">
+      <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="H163">
+        <v>141</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="53.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6366,61 +6448,47 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164">
-        <v>148</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>288</v>
+        <v>142</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>627</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165">
-        <v>149</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="J165" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K165" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="66">
-      <c r="A166" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166">
-        <v>150</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="66">
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6429,16 +6497,16 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167">
-        <v>151</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K167" s="3" t="s">
-        <v>631</v>
+        <v>143</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="66">
@@ -6450,19 +6518,19 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168">
-        <v>152</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>296</v>
+        <v>144</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="49.5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="66">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6471,19 +6539,19 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169">
-        <v>153</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>298</v>
+        <v>145</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="49.5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="99">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6492,1588 +6560,1686 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170">
-        <v>154</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>300</v>
+        <v>146</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="99">
       <c r="A171" s="3"/>
-      <c r="B171" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+      <c r="H171">
+        <v>147</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="172" spans="1:11">
+      <c r="A172" s="3"/>
       <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176">
+        <v>148</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177">
+        <v>149</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K177" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="66">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178">
+        <v>150</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="66">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179">
+        <v>151</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="66">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180">
+        <v>152</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="49.5">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181">
+        <v>153</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="49.5">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182">
+        <v>154</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
-      <c r="H175">
+    <row r="187" spans="1:11">
+      <c r="H187">
         <v>105</v>
       </c>
-      <c r="I175" s="3" t="s">
+      <c r="I187" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J175" s="9" t="s">
+      <c r="J187" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="K175" s="9" t="s">
+      <c r="K187" s="9" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="66">
-      <c r="H176">
+    <row r="188" spans="1:11" ht="66">
+      <c r="H188">
         <v>106</v>
       </c>
-      <c r="I176" s="3" t="s">
+      <c r="I188" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="J188" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K176" s="3" t="s">
+      <c r="K188" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="49.5">
-      <c r="H177">
+    <row r="189" spans="1:11" ht="49.5">
+      <c r="H189">
         <v>107</v>
       </c>
-      <c r="I177" s="3" t="s">
+      <c r="I189" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="J189" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K177" s="3" t="s">
+      <c r="K189" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="49.5">
-      <c r="H178">
+    <row r="190" spans="1:11" ht="49.5">
+      <c r="H190">
         <v>108</v>
       </c>
-      <c r="I178" s="3" t="s">
+      <c r="I190" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J178" s="3" t="s">
+      <c r="J190" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K178" s="3" t="s">
+      <c r="K190" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="33">
-      <c r="H179">
+    <row r="191" spans="1:11" ht="33">
+      <c r="H191">
         <v>109</v>
       </c>
-      <c r="I179" s="3" t="s">
+      <c r="I191" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J179" s="3" t="s">
+      <c r="J191" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K179" s="3" t="s">
+      <c r="K191" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
-      <c r="B180" s="3" t="s">
+    <row r="192" spans="1:11">
+      <c r="B192" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="33">
-      <c r="A181" s="3" t="s">
+    <row r="193" spans="1:11" ht="33">
+      <c r="A193" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
-      <c r="H183">
+    <row r="195" spans="1:11">
+      <c r="H195">
         <v>110</v>
       </c>
-      <c r="I183" s="3" t="s">
+      <c r="I195" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J183" s="9" t="s">
+      <c r="J195" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="K183" t="s">
+      <c r="K195" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="33">
-      <c r="H184">
+    <row r="196" spans="1:11" ht="33">
+      <c r="H196">
         <v>111</v>
       </c>
-      <c r="I184" s="3" t="s">
+      <c r="I196" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J184" s="9" t="s">
+      <c r="J196" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K184" s="9" t="s">
+      <c r="K196" s="9" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="33">
-      <c r="H185">
+    <row r="197" spans="1:11" ht="33">
+      <c r="H197">
         <v>112</v>
       </c>
-      <c r="I185" s="3" t="s">
+      <c r="I197" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J185" s="9" t="s">
+      <c r="J197" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="K185" s="9" t="s">
+      <c r="K197" s="9" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="66">
-      <c r="H186">
+    <row r="198" spans="1:11" ht="66">
+      <c r="H198">
         <v>113</v>
       </c>
-      <c r="I186" s="3" t="s">
+      <c r="I198" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J186" s="9" t="s">
+      <c r="J198" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K186" s="9" t="s">
+      <c r="K198" s="9" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="40.5">
-      <c r="H187">
+    <row r="199" spans="1:11" ht="40.5">
+      <c r="H199">
         <v>114</v>
       </c>
-      <c r="I187" s="3" t="s">
+      <c r="I199" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J187" s="9" t="s">
+      <c r="J199" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="K187" s="9" t="s">
+      <c r="K199" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="40.5">
-      <c r="H188">
+    <row r="200" spans="1:11" ht="40.5">
+      <c r="H200">
         <v>115</v>
       </c>
-      <c r="I188" s="3" t="s">
+      <c r="I200" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J188" s="9" t="s">
+      <c r="J200" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="K188" s="9" t="s">
+      <c r="K200" s="9" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
-      <c r="B189" s="3" t="s">
+    <row r="201" spans="1:11">
+      <c r="B201" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
-      <c r="B190" s="3"/>
-    </row>
-    <row r="191" spans="1:11" ht="33">
-      <c r="A191" s="3" t="s">
+    <row r="202" spans="1:11">
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="1:11" ht="33">
+      <c r="A203" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
-      <c r="H193">
+    <row r="205" spans="1:11">
+      <c r="H205">
         <v>26</v>
       </c>
-      <c r="I193" s="3" t="s">
+      <c r="I205" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J193" s="9" t="s">
+      <c r="J205" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="K193" t="s">
+      <c r="K205" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="49.5">
-      <c r="H194">
+    <row r="206" spans="1:11" ht="49.5">
+      <c r="H206">
         <v>27</v>
       </c>
-      <c r="I194" s="3" t="s">
+      <c r="I206" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J194" s="3" t="s">
+      <c r="J206" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="K194" s="3" t="s">
+      <c r="K206" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="33">
-      <c r="H195">
+    <row r="207" spans="1:11" ht="33">
+      <c r="H207">
         <v>28</v>
       </c>
-      <c r="I195" s="3" t="s">
+      <c r="I207" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="J195" s="3" t="s">
+      <c r="J207" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K195" s="3" t="s">
+      <c r="K207" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="115.5">
-      <c r="H196">
+    <row r="208" spans="1:11" ht="115.5">
+      <c r="H208">
         <v>29</v>
       </c>
-      <c r="I196" s="3" t="s">
+      <c r="I208" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="J208" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="K196" s="3" t="s">
+      <c r="K208" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="82.5">
-      <c r="H197">
+    <row r="209" spans="1:11" ht="82.5">
+      <c r="H209">
         <v>30</v>
       </c>
-      <c r="I197" s="3" t="s">
+      <c r="I209" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="J197" s="3" t="s">
+      <c r="J209" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K197" s="3" t="s">
+      <c r="K209" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="33">
-      <c r="H198">
+    <row r="210" spans="1:11" ht="33">
+      <c r="H210">
         <v>31</v>
       </c>
-      <c r="I198" s="3" t="s">
+      <c r="I210" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="J198" s="3" t="s">
+      <c r="J210" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="K198" s="3" t="s">
+      <c r="K210" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
-      <c r="H199">
+    <row r="211" spans="1:11">
+      <c r="H211">
         <v>32</v>
       </c>
-      <c r="I199" s="3" t="s">
+      <c r="I211" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J199" s="3" t="s">
+      <c r="J211" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K199" s="3" t="s">
+      <c r="K211" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="33">
-      <c r="H200">
+    <row r="212" spans="1:11" ht="33">
+      <c r="H212">
         <v>33</v>
       </c>
-      <c r="I200" s="3" t="s">
+      <c r="I212" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="J200" s="3" t="s">
+      <c r="J212" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K200" s="3" t="s">
+      <c r="K212" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
-      <c r="H201">
+    <row r="213" spans="1:11">
+      <c r="H213">
         <v>34</v>
       </c>
-      <c r="I201" s="3" t="s">
+      <c r="I213" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="J213" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="K201" s="3" t="s">
+      <c r="K213" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
-      <c r="B202" s="3" t="s">
+    <row r="214" spans="1:11">
+      <c r="B214" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="15.6" customHeight="1"/>
-    <row r="204" spans="1:11" ht="15.6" customHeight="1"/>
-    <row r="205" spans="1:11" ht="15.6" customHeight="1"/>
-    <row r="206" spans="1:11">
-      <c r="A206" t="s">
+    <row r="215" spans="1:11" ht="15.6" customHeight="1"/>
+    <row r="216" spans="1:11" ht="15.6" customHeight="1"/>
+    <row r="217" spans="1:11" ht="15.6" customHeight="1"/>
+    <row r="218" spans="1:11">
+      <c r="A218" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
-      <c r="H208">
+    <row r="220" spans="1:11">
+      <c r="H220">
         <v>35</v>
       </c>
-      <c r="I208" s="3" t="s">
+      <c r="I220" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="J208" s="9" t="s">
+      <c r="J220" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="K208" t="s">
+      <c r="K220" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
-      <c r="B209" t="s">
+    <row r="221" spans="1:11">
+      <c r="B221" t="s">
         <v>342</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D221" t="s">
         <v>343</v>
       </c>
-      <c r="H209">
+      <c r="H221">
         <v>36</v>
       </c>
-      <c r="I209" s="3" t="s">
+      <c r="I221" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="J209" s="9" t="s">
+      <c r="J221" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="K209" s="9" t="s">
+      <c r="K221" s="9" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="B210" t="s">
-        <v>346</v>
-      </c>
-      <c r="D210" t="s">
-        <v>343</v>
-      </c>
-      <c r="H210">
-        <v>37</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="J210" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="K210" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="I211" s="3"/>
-      <c r="J211" s="9"/>
-      <c r="K211" s="9"/>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212" t="s">
-        <v>342</v>
-      </c>
-      <c r="I212" s="3"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="9"/>
-    </row>
-    <row r="213" spans="1:11" ht="33">
-      <c r="H213">
-        <v>38</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="K213" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="66">
-      <c r="H214">
-        <v>39</v>
-      </c>
-      <c r="I214" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K214" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="49.5">
-      <c r="H215">
-        <v>40</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K215" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="33">
-      <c r="H216">
-        <v>41</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="J216" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="K216" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="33">
-      <c r="H217">
-        <v>42</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J217" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="82.5">
-      <c r="H218">
-        <v>43</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="J218" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K218" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
-      <c r="B219" t="s">
-        <v>136</v>
-      </c>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="A220" t="s">
-        <v>346</v>
-      </c>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-    </row>
-    <row r="221" spans="1:11">
-      <c r="H221">
-        <v>44</v>
-      </c>
-      <c r="I221" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="J221" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="K221" s="9" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="B222" t="s">
-        <v>136</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="D222" t="s">
+        <v>343</v>
+      </c>
+      <c r="H222">
+        <v>37</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J222" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="K222" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="I223" s="3"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A224" t="s">
+        <v>342</v>
+      </c>
+      <c r="I224" s="3"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
     </row>
     <row r="225" spans="1:11" ht="33">
       <c r="H225">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J225" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="K225" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" ht="49.5">
+        <v>349</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="66">
       <c r="H226">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" ht="82.5">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="49.5">
       <c r="H227">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" ht="66">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="33">
       <c r="H228">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="33">
       <c r="H229">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>135</v>
+        <v>358</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="82.5">
       <c r="H230">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="49.5">
-      <c r="H231">
-        <v>99</v>
-      </c>
-      <c r="I231" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="J231" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K231" s="3" t="s">
-        <v>661</v>
-      </c>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="B231" t="s">
+        <v>136</v>
+      </c>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="I232" s="3"/>
+      <c r="A232" t="s">
+        <v>346</v>
+      </c>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
     <row r="233" spans="1:11">
-      <c r="B233" s="3" t="s">
+      <c r="H233">
+        <v>44</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J233" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K233" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="B234" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
-      <c r="A234" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="33">
-      <c r="H235">
-        <v>100</v>
-      </c>
-      <c r="I235" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="J235" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="K235" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="82.5">
-      <c r="H236">
-        <v>101</v>
-      </c>
-      <c r="I236" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="J236" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="K236" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="66">
+    <row r="236" spans="1:11">
+      <c r="A236" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="33">
       <c r="H237">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J237" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K237" s="3" t="s">
-        <v>537</v>
+        <v>363</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="K237" s="9" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="49.5">
       <c r="H238">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="82.5">
       <c r="H239">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="K239" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="66">
+      <c r="H240">
+        <v>96</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="B241" s="3" t="s">
+      <c r="H241">
+        <v>97</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="H242">
+        <v>98</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="49.5">
+      <c r="H243">
+        <v>99</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="B245" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
-      <c r="B242" s="3"/>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11">
-      <c r="H244">
-        <v>79</v>
-      </c>
-      <c r="I244" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J244" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K244" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="H245">
-        <v>80</v>
-      </c>
-      <c r="I245" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K245" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="66">
-      <c r="H246">
-        <v>81</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K246" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="49.5">
+    <row r="246" spans="1:11">
+      <c r="A246" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="33">
       <c r="H247">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J247" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K247" s="3" t="s">
-        <v>666</v>
+        <v>374</v>
+      </c>
+      <c r="J247" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="82.5">
       <c r="H248">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="66">
       <c r="H249">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K249" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
+        <v>379</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="49.5">
+      <c r="H250">
+        <v>103</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="251" spans="1:11">
-      <c r="B251" s="3" t="s">
+      <c r="H251">
+        <v>104</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K251" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="B253" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
-      <c r="B252" s="3"/>
-    </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="254" spans="1:11">
-      <c r="H254">
-        <v>85</v>
-      </c>
-      <c r="I254" s="3" t="s">
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="H256">
+        <v>79</v>
+      </c>
+      <c r="I256" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J254" s="9" t="s">
+      <c r="J256" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K254" s="9" t="s">
+      <c r="K256" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="33">
-      <c r="H255">
-        <v>86</v>
-      </c>
-      <c r="I255" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K255" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="33">
-      <c r="H256">
-        <v>87</v>
-      </c>
-      <c r="I256" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K256" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" ht="115.5">
+    <row r="257" spans="1:11">
       <c r="H257">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>671</v>
+        <v>384</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K257" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="99">
+        <v>385</v>
+      </c>
+      <c r="K257" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="66">
       <c r="H258">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="49.5">
       <c r="H259">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" ht="33">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="82.5">
       <c r="H260">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="261" spans="1:11">
       <c r="H261">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K261" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="262" spans="1:11">
-      <c r="B262" s="3" t="s">
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="B263" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="H265">
-        <v>74</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="J265" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="K265" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" ht="49.5">
+      <c r="A265" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="H266">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="J266" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="99">
+        <v>134</v>
+      </c>
+      <c r="J266" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K266" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="33">
       <c r="H267">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>677</v>
+        <v>538</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="33">
       <c r="H268">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" ht="82.5">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="115.5">
       <c r="H269">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>414</v>
+        <v>671</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11">
-      <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
-    </row>
-    <row r="271" spans="1:11">
-      <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
-      <c r="K271" s="3"/>
-    </row>
-    <row r="272" spans="1:11">
-      <c r="B272" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="99">
+      <c r="H270">
+        <v>89</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="49.5">
+      <c r="H271">
+        <v>90</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="33">
+      <c r="H272">
+        <v>91</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
+      <c r="H273">
+        <v>92</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K273" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="B274" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
-      <c r="A274" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="33">
-      <c r="H275">
-        <v>66</v>
-      </c>
-      <c r="I275" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="J275" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="K275" s="9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="33">
-      <c r="H276">
-        <v>67</v>
-      </c>
-      <c r="I276" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J276" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="K276" s="3" t="s">
-        <v>681</v>
+    <row r="276" spans="1:11">
+      <c r="A276" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="277" spans="1:11">
       <c r="H277">
+        <v>74</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J277" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="K277" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="49.5">
+      <c r="H278">
+        <v>75</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="99">
+      <c r="H279">
+        <v>76</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="33">
+      <c r="H280">
+        <v>77</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="82.5">
+      <c r="H281">
+        <v>78</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="B284" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="33">
+      <c r="H287">
+        <v>66</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J287" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="K287" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="33">
+      <c r="H288">
+        <v>67</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="H289">
         <v>68</v>
       </c>
-      <c r="I277" s="3" t="s">
+      <c r="I289" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="J277" s="3" t="s">
+      <c r="J289" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="K277" s="3" t="s">
+      <c r="K289" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="33">
-      <c r="H278">
+    <row r="290" spans="1:11" ht="33">
+      <c r="H290">
         <v>69</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="I290" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="J278" s="3" t="s">
+      <c r="J290" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="K278" s="3" t="s">
+      <c r="K290" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="66">
-      <c r="H279">
+    <row r="291" spans="1:11" ht="66">
+      <c r="H291">
         <v>70</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="I291" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="J279" s="3" t="s">
+      <c r="J291" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="K279" s="3" t="s">
+      <c r="K291" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="66">
-      <c r="H280">
+    <row r="292" spans="1:11" ht="66">
+      <c r="H292">
         <v>71</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="I292" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="J280" s="3" t="s">
+      <c r="J292" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="K280" s="3" t="s">
+      <c r="K292" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="49.5">
-      <c r="H281">
+    <row r="293" spans="1:11" ht="49.5">
+      <c r="H293">
         <v>72</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="I293" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="J281" s="3" t="s">
+      <c r="J293" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="K281" s="3" t="s">
+      <c r="K293" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="33">
-      <c r="H282">
+    <row r="294" spans="1:11" ht="33">
+      <c r="H294">
         <v>73</v>
       </c>
-      <c r="I282" s="3" t="s">
+      <c r="I294" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="J282" s="3" t="s">
+      <c r="J294" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="K282" s="3" t="s">
+      <c r="K294" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
-      <c r="B283" s="3" t="s">
+    <row r="295" spans="1:11">
+      <c r="B295" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
-      <c r="A284" s="3" t="s">
+    <row r="296" spans="1:11">
+      <c r="A296" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
-      <c r="H285">
+    <row r="297" spans="1:11">
+      <c r="H297">
         <v>60</v>
       </c>
-      <c r="I285" s="3" t="s">
+      <c r="I297" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="J285" s="9" t="s">
+      <c r="J297" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="K285" t="s">
+      <c r="K297" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="99">
-      <c r="H286">
+    <row r="298" spans="1:11" ht="99">
+      <c r="H298">
         <v>61</v>
       </c>
-      <c r="I286" s="3" t="s">
+      <c r="I298" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="J286" s="3" t="s">
+      <c r="J298" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="K286" s="3" t="s">
+      <c r="K298" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="66">
-      <c r="H287">
+    <row r="299" spans="1:11" ht="66">
+      <c r="H299">
         <v>62</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="I299" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J287" s="3" t="s">
+      <c r="J299" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="K287" s="3" t="s">
+      <c r="K299" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="66">
-      <c r="H288">
+    <row r="300" spans="1:11" ht="66">
+      <c r="H300">
         <v>63</v>
       </c>
-      <c r="I288" s="3" t="s">
+      <c r="I300" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="J288" s="3" t="s">
+      <c r="J300" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="K288" s="3" t="s">
+      <c r="K300" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="49.5">
-      <c r="H289">
+    <row r="301" spans="1:11" ht="49.5">
+      <c r="H301">
         <v>64</v>
       </c>
-      <c r="I289" s="3" t="s">
+      <c r="I301" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="J289" s="3" t="s">
+      <c r="J301" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="K289" s="3" t="s">
+      <c r="K301" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="49.5">
-      <c r="H290">
+    <row r="302" spans="1:11" ht="49.5">
+      <c r="H302">
         <v>65</v>
       </c>
-      <c r="I290" s="3" t="s">
+      <c r="I302" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="J290" s="3" t="s">
+      <c r="J302" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="K290" s="3" t="s">
+      <c r="K302" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
-      <c r="B291" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
-      <c r="A294" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" ht="33">
-      <c r="H295">
-        <v>53</v>
-      </c>
-      <c r="I295" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="J295" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="K295" s="9" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" ht="33">
-      <c r="H296">
-        <v>54</v>
-      </c>
-      <c r="I296" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J296" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="K296" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" ht="40.5">
-      <c r="H297">
-        <v>55</v>
-      </c>
-      <c r="I297" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="J297" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="K297" s="9" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" ht="33">
-      <c r="H298">
-        <v>56</v>
-      </c>
-      <c r="I298" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="J298" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="K298" s="9" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11">
-      <c r="H299">
-        <v>57</v>
-      </c>
-      <c r="I299" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J299" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K299" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" ht="53.25">
-      <c r="H300">
-        <v>58</v>
-      </c>
-      <c r="I300" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="J300" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="K300" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11">
-      <c r="H301">
-        <v>59</v>
-      </c>
-      <c r="I301" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J301" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K301" s="9" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11">
-      <c r="B302" s="3" t="s">
+    <row r="303" spans="1:11">
+      <c r="B303" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="33">
       <c r="H307">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="J307" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="K307" t="s">
-        <v>695</v>
+        <v>444</v>
+      </c>
+      <c r="K307" s="9" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="33">
       <c r="H308">
+        <v>54</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="J308" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="K308" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="40.5">
+      <c r="H309">
+        <v>55</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J309" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="K309" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="33">
+      <c r="H310">
+        <v>56</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J310" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="K310" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
+      <c r="H311">
+        <v>57</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" ht="53.25">
+      <c r="H312">
+        <v>58</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="J312" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K312" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
+      <c r="H313">
+        <v>59</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J313" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K313" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="B314" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
+      <c r="A318" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
+      <c r="H319">
+        <v>45</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J319" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="K319" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" ht="33">
+      <c r="H320">
         <v>46</v>
       </c>
-      <c r="I308" s="3" t="s">
+      <c r="I320" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="J308" s="3" t="s">
+      <c r="J320" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="K308" s="3" t="s">
+      <c r="K320" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="49.5">
-      <c r="H309">
+    <row r="321" spans="1:11" ht="49.5">
+      <c r="H321">
         <v>50</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="I321" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="J309" s="3" t="s">
+      <c r="J321" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K309" s="3" t="s">
+      <c r="K321" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="49.5">
-      <c r="H310">
+    <row r="322" spans="1:11" ht="49.5">
+      <c r="H322">
         <v>47</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="I322" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="J310" s="9" t="s">
+      <c r="J322" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="K310" s="9" t="s">
+      <c r="K322" s="9" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="99">
-      <c r="H311">
+    <row r="323" spans="1:11" ht="99">
+      <c r="H323">
         <v>48</v>
       </c>
-      <c r="I311" s="3" t="s">
+      <c r="I323" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="J311" s="3" t="s">
+      <c r="J323" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="K311" s="3" t="s">
+      <c r="K323" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="33">
-      <c r="H312">
+    <row r="324" spans="1:11" ht="33">
+      <c r="H324">
         <v>49</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="I324" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="J312" s="3" t="s">
+      <c r="J324" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="K312" s="3" t="s">
+      <c r="K324" s="3" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11">
-      <c r="B313" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11">
-      <c r="A316" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" ht="33">
-      <c r="H317">
-        <v>1</v>
-      </c>
-      <c r="I317" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="J317" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="K317" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" ht="33">
-      <c r="H318">
-        <v>2</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="J318" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="K318" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" ht="49.5">
-      <c r="H319">
-        <v>5</v>
-      </c>
-      <c r="I319" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="J319" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="K319" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" ht="66">
-      <c r="H320">
-        <v>6</v>
-      </c>
-      <c r="I320" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="J320" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="K320" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" ht="99">
-      <c r="H321">
-        <v>212</v>
-      </c>
-      <c r="I321" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="J321" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="K321" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" ht="33">
-      <c r="H322">
-        <v>52</v>
-      </c>
-      <c r="I322" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="J322" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="K322" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" ht="115.5">
-      <c r="H323">
-        <v>17</v>
-      </c>
-      <c r="I323" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="J323" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="K323" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11">
-      <c r="H324">
-        <v>7</v>
-      </c>
-      <c r="I324" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J324" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K324" s="9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -8081,198 +8247,323 @@
         <v>136</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
-      <c r="A327" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="328" spans="1:11">
-      <c r="D328" t="s">
-        <v>479</v>
-      </c>
-      <c r="E328" t="s">
-        <v>480</v>
+      <c r="A328" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="33">
       <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="33">
+      <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" ht="49.5">
+      <c r="H331">
+        <v>5</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" ht="66">
+      <c r="H332">
+        <v>6</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" ht="99">
+      <c r="H333">
+        <v>212</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="33">
+      <c r="H334">
+        <v>52</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="115.5">
+      <c r="H335">
+        <v>17</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
+      <c r="H336">
+        <v>7</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J336" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K336" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="B337" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="A339" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
+      <c r="D340" t="s">
+        <v>479</v>
+      </c>
+      <c r="E340" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" ht="33">
+      <c r="H341">
         <v>8</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="I341" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="J329" s="3" t="s">
+      <c r="J341" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="K329" s="3" t="s">
+      <c r="K341" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="66">
-      <c r="H330">
+    <row r="342" spans="1:11" ht="66">
+      <c r="H342">
         <v>9</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="I342" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="J330" s="3" t="s">
+      <c r="J342" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="K330" s="3" t="s">
+      <c r="K342" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="33">
-      <c r="B331" t="s">
-        <v>136</v>
-      </c>
-      <c r="H331">
-        <v>10</v>
-      </c>
-      <c r="I331" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="J331" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="K331" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11">
-      <c r="A334" t="s">
-        <v>487</v>
-      </c>
-      <c r="H334">
-        <v>11</v>
-      </c>
-      <c r="I334" t="s">
-        <v>488</v>
-      </c>
-      <c r="J334" t="s">
-        <v>489</v>
-      </c>
-      <c r="K334" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11">
-      <c r="B335" t="s">
-        <v>490</v>
-      </c>
-      <c r="D335" t="s">
-        <v>343</v>
-      </c>
-      <c r="H335">
-        <v>12</v>
-      </c>
-      <c r="I335" t="s">
-        <v>491</v>
-      </c>
-      <c r="J335" t="s">
-        <v>492</v>
-      </c>
-      <c r="K335" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11">
-      <c r="B336" t="s">
-        <v>490</v>
-      </c>
-      <c r="D336" t="s">
-        <v>343</v>
-      </c>
-      <c r="H336">
-        <v>13</v>
-      </c>
-      <c r="I336" t="s">
-        <v>493</v>
-      </c>
-      <c r="J336" t="s">
-        <v>494</v>
-      </c>
-      <c r="K336" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11">
-      <c r="B337" t="s">
-        <v>495</v>
-      </c>
-      <c r="D337" t="s">
-        <v>343</v>
-      </c>
-      <c r="H337">
-        <v>14</v>
-      </c>
-      <c r="I337" t="s">
-        <v>496</v>
-      </c>
-      <c r="J337" t="s">
-        <v>497</v>
-      </c>
-      <c r="K337" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11">
-      <c r="B338" t="s">
-        <v>136</v>
-      </c>
-      <c r="D338" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11">
-      <c r="A342" t="s">
-        <v>490</v>
-      </c>
-      <c r="H342">
-        <v>15</v>
-      </c>
-      <c r="I342" t="s">
-        <v>499</v>
-      </c>
-      <c r="J342" t="s">
-        <v>500</v>
-      </c>
-      <c r="K342" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" ht="33">
       <c r="B343" t="s">
         <v>136</v>
       </c>
+      <c r="H343">
+        <v>10</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" t="s">
-        <v>495</v>
+        <v>487</v>
+      </c>
+      <c r="H346">
+        <v>11</v>
+      </c>
+      <c r="I346" t="s">
+        <v>488</v>
+      </c>
+      <c r="J346" t="s">
+        <v>489</v>
+      </c>
+      <c r="K346" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="347" spans="1:11">
+      <c r="B347" t="s">
+        <v>490</v>
+      </c>
+      <c r="D347" t="s">
+        <v>343</v>
+      </c>
       <c r="H347">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I347" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="J347" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K347" t="s">
-        <v>552</v>
+        <v>709</v>
       </c>
     </row>
     <row r="348" spans="1:11">
       <c r="B348" t="s">
+        <v>490</v>
+      </c>
+      <c r="D348" t="s">
+        <v>343</v>
+      </c>
+      <c r="H348">
+        <v>13</v>
+      </c>
+      <c r="I348" t="s">
+        <v>493</v>
+      </c>
+      <c r="J348" t="s">
+        <v>494</v>
+      </c>
+      <c r="K348" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="B349" t="s">
+        <v>495</v>
+      </c>
+      <c r="D349" t="s">
+        <v>343</v>
+      </c>
+      <c r="H349">
+        <v>14</v>
+      </c>
+      <c r="I349" t="s">
+        <v>496</v>
+      </c>
+      <c r="J349" t="s">
+        <v>497</v>
+      </c>
+      <c r="K349" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="B350" t="s">
         <v>136</v>
       </c>
+      <c r="D350" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
+      <c r="A354" t="s">
+        <v>490</v>
+      </c>
+      <c r="H354">
+        <v>15</v>
+      </c>
+      <c r="I354" t="s">
+        <v>499</v>
+      </c>
+      <c r="J354" t="s">
+        <v>500</v>
+      </c>
+      <c r="K354" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="B355" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
+      <c r="A358" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="H359">
+        <v>16</v>
+      </c>
+      <c r="I359" t="s">
+        <v>501</v>
+      </c>
+      <c r="J359" t="s">
+        <v>502</v>
+      </c>
+      <c r="K359" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="B360" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H4:H1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="H4:H11 H24:H1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H23">
+    <cfRule type="duplicateValues" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/PTBR/Lang/PTBR/Dialog/Drama/_tutorial.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/_tutorial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D524DE-859C-448D-AD82-7FC8C78686C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322FE099-D98E-4BAE-A19A-A5FC2EFB50E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="1245" windowWidth="21450" windowHeight="11835" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3378,9 +3378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4218,10 +4218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomLeft" activeCell="E359" sqref="E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4525,7 +4525,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="53.25">
+    <row r="29" spans="1:11" ht="49.5">
       <c r="H29">
         <v>204</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="53.25">
+    <row r="30" spans="1:11" ht="49.5">
       <c r="H30">
         <v>205</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="40.5">
+    <row r="50" spans="1:11" ht="33">
       <c r="H50">
         <v>199</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="78.75">
+    <row r="57" spans="1:11" ht="49.5">
       <c r="H57">
         <v>185</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="78.75">
+    <row r="61" spans="1:11" ht="53.25">
       <c r="H61">
         <v>189</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="66">
+    <row r="72" spans="1:11" ht="49.5">
       <c r="H72">
         <v>176</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="66">
+    <row r="74" spans="1:11" ht="49.5">
       <c r="H74">
         <v>178</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="66">
+    <row r="75" spans="1:11" ht="33">
       <c r="H75">
         <v>179</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="66">
+    <row r="81" spans="1:11" ht="49.5">
       <c r="H81">
         <v>181</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="66">
+    <row r="91" spans="1:11" ht="49.5">
       <c r="H91">
         <v>24</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="66">
+    <row r="99" spans="1:11" ht="57">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5394,7 +5394,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="66">
+    <row r="107" spans="1:11" ht="40.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5415,7 +5415,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="53.25">
+    <row r="108" spans="1:11" ht="43.5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5436,7 +5436,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="53.25">
+    <row r="109" spans="1:11" ht="40.5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5527,7 +5527,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="66">
+    <row r="114" spans="1:11" ht="43.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5660,7 +5660,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="40.5">
+    <row r="121" spans="1:11" ht="30">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5896,7 +5896,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="66">
+    <row r="134" spans="1:11" ht="49.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5917,7 +5917,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="66">
+    <row r="135" spans="1:11" ht="33">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5938,7 +5938,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="49.5">
+    <row r="136" spans="1:11" ht="33">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6053,7 +6053,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="49.5">
+    <row r="143" spans="1:11" ht="33">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6147,7 +6147,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="49.5">
+    <row r="149" spans="1:11" ht="33">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6210,7 +6210,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="66">
+    <row r="152" spans="1:11" ht="49.5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6252,7 +6252,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="49.5">
+    <row r="154" spans="1:11" ht="33">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6439,7 +6439,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="53.25">
+    <row r="164" spans="1:11" ht="43.5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6509,7 +6509,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="66">
+    <row r="168" spans="1:11" ht="49.5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6530,7 +6530,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="66">
+    <row r="169" spans="1:11" ht="43.5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6551,7 +6551,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="99">
+    <row r="170" spans="1:11" ht="49.5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6572,7 +6572,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="99">
+    <row r="171" spans="1:11" ht="57">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6687,7 +6687,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="66">
+    <row r="178" spans="1:11" ht="49.5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6708,7 +6708,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="66">
+    <row r="179" spans="1:11" ht="49.5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6828,7 +6828,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="66">
+    <row r="188" spans="1:11" ht="33">
       <c r="H188">
         <v>106</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="40.5">
+    <row r="199" spans="1:11" ht="33">
       <c r="H199">
         <v>114</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="40.5">
+    <row r="200" spans="1:11" ht="33">
       <c r="H200">
         <v>115</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="115.5">
+    <row r="208" spans="1:11" ht="99">
       <c r="H208">
         <v>29</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="82.5">
+    <row r="209" spans="1:11" ht="49.5">
       <c r="H209">
         <v>30</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="66">
+    <row r="226" spans="1:11" ht="33">
       <c r="H226">
         <v>39</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="49.5">
+    <row r="227" spans="1:11" ht="33">
       <c r="H227">
         <v>40</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="82.5">
+    <row r="230" spans="1:11" ht="49.5">
       <c r="H230">
         <v>43</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="82.5">
+    <row r="239" spans="1:11" ht="49.5">
       <c r="H239">
         <v>95</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="66">
+    <row r="240" spans="1:11" ht="49.5">
       <c r="H240">
         <v>96</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="82.5">
+    <row r="248" spans="1:11" ht="66">
       <c r="H248">
         <v>101</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="66">
+    <row r="249" spans="1:11" ht="49.5">
       <c r="H249">
         <v>102</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="49.5">
+    <row r="250" spans="1:11" ht="33">
       <c r="H250">
         <v>103</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="49.5">
+    <row r="259" spans="1:11" ht="33">
       <c r="H259">
         <v>82</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="82.5">
+    <row r="260" spans="1:11" ht="66">
       <c r="H260">
         <v>83</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="115.5">
+    <row r="269" spans="1:11" ht="66">
       <c r="H269">
         <v>88</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="99">
+    <row r="270" spans="1:11" ht="49.5">
       <c r="H270">
         <v>89</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="49.5">
+    <row r="271" spans="1:11" ht="33">
       <c r="H271">
         <v>90</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="99">
+    <row r="279" spans="1:11" ht="66">
       <c r="H279">
         <v>76</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="82.5">
+    <row r="281" spans="1:11" ht="49.5">
       <c r="H281">
         <v>78</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="66">
+    <row r="291" spans="1:11" ht="49.5">
       <c r="H291">
         <v>70</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="66">
+    <row r="292" spans="1:11" ht="49.5">
       <c r="H292">
         <v>71</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="49.5">
+    <row r="293" spans="1:11" ht="33">
       <c r="H293">
         <v>72</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="99">
+    <row r="298" spans="1:11" ht="66">
       <c r="H298">
         <v>61</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="66">
+    <row r="299" spans="1:11" ht="33">
       <c r="H299">
         <v>62</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="66">
+    <row r="300" spans="1:11" ht="33">
       <c r="H300">
         <v>63</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="49.5">
+    <row r="301" spans="1:11" ht="33">
       <c r="H301">
         <v>64</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="40.5">
+    <row r="309" spans="1:11" ht="33">
       <c r="H309">
         <v>55</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="53.25">
+    <row r="312" spans="1:11" ht="49.5">
       <c r="H312">
         <v>58</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="99">
+    <row r="323" spans="1:11" ht="66">
       <c r="H323">
         <v>48</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="99">
+    <row r="333" spans="1:11" ht="66">
       <c r="H333">
         <v>212</v>
       </c>
